--- a/CHILE/Población Chile 1960-2050.xlsx
+++ b/CHILE/Población Chile 1960-2050.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATAICC\CHILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\CHILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF759888-FC24-4E43-BEF0-3BED657AEF1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A916A5-C362-4EE1-AE52-04EE9439AA5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5E2245B-78DB-448B-9D23-F23536950C63}"/>
   </bookViews>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9461F8BC-BA61-4ED9-99DC-868EF3EB8197}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42:H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CHILE/Población Chile 1960-2050.xlsx
+++ b/CHILE/Población Chile 1960-2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\CHILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A916A5-C362-4EE1-AE52-04EE9439AA5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B7EAAA-275B-4E81-A1E9-4313A4872DF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5E2245B-78DB-448B-9D23-F23536950C63}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42:H57"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
